--- a/bots/crawl_ch/output/clothes_2022-08-22.xlsx
+++ b/bots/crawl_ch/output/clothes_2022-08-22.xlsx
@@ -531,7 +531,7 @@
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2022-08-22 07:03:23</t>
+          <t>2022-08-22 20:58:52</t>
         </is>
       </c>
     </row>
@@ -582,7 +582,7 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2022-08-22 07:03:23</t>
+          <t>2022-08-22 20:58:52</t>
         </is>
       </c>
     </row>
@@ -633,7 +633,7 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2022-08-22 07:03:23</t>
+          <t>2022-08-22 20:58:52</t>
         </is>
       </c>
     </row>
@@ -686,7 +686,7 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2022-08-22 07:03:23</t>
+          <t>2022-08-22 20:58:52</t>
         </is>
       </c>
     </row>
@@ -757,7 +757,7 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2022-08-22 07:03:23</t>
+          <t>2022-08-22 20:58:52</t>
         </is>
       </c>
     </row>
@@ -828,7 +828,7 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>2022-08-22 07:03:23</t>
+          <t>2022-08-22 20:58:52</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>2022-08-22 07:03:23</t>
+          <t>2022-08-22 20:58:52</t>
         </is>
       </c>
     </row>
@@ -930,7 +930,7 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>2022-08-22 07:03:23</t>
+          <t>2022-08-22 20:58:52</t>
         </is>
       </c>
     </row>
@@ -1001,7 +1001,7 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>2022-08-22 07:03:23</t>
+          <t>2022-08-22 20:58:52</t>
         </is>
       </c>
     </row>
@@ -1052,7 +1052,7 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>2022-08-22 07:03:23</t>
+          <t>2022-08-22 20:58:52</t>
         </is>
       </c>
     </row>
@@ -1103,7 +1103,7 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>2022-08-22 07:03:23</t>
+          <t>2022-08-22 20:58:52</t>
         </is>
       </c>
     </row>
@@ -1154,7 +1154,7 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>2022-08-22 07:03:23</t>
+          <t>2022-08-22 20:58:52</t>
         </is>
       </c>
     </row>
@@ -1207,7 +1207,7 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>2022-08-22 07:03:23</t>
+          <t>2022-08-22 20:58:52</t>
         </is>
       </c>
     </row>
@@ -1258,7 +1258,7 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>2022-08-22 07:03:23</t>
+          <t>2022-08-22 20:58:52</t>
         </is>
       </c>
     </row>
@@ -1311,7 +1311,7 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>2022-08-22 07:03:23</t>
+          <t>2022-08-22 20:58:52</t>
         </is>
       </c>
     </row>
@@ -1364,7 +1364,7 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>2022-08-22 07:03:23</t>
+          <t>2022-08-22 20:58:52</t>
         </is>
       </c>
     </row>
@@ -1435,7 +1435,7 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>2022-08-22 07:03:23</t>
+          <t>2022-08-22 20:58:52</t>
         </is>
       </c>
     </row>
@@ -1506,7 +1506,7 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>2022-08-22 07:03:23</t>
+          <t>2022-08-22 20:58:52</t>
         </is>
       </c>
     </row>
@@ -1577,7 +1577,7 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>2022-08-22 07:03:23</t>
+          <t>2022-08-22 20:58:52</t>
         </is>
       </c>
     </row>
@@ -1648,7 +1648,7 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>2022-08-22 07:03:23</t>
+          <t>2022-08-22 20:58:52</t>
         </is>
       </c>
     </row>
@@ -1701,7 +1701,7 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>2022-08-22 07:03:23</t>
+          <t>2022-08-22 20:58:52</t>
         </is>
       </c>
     </row>
@@ -1754,7 +1754,7 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>2022-08-22 07:03:23</t>
+          <t>2022-08-22 20:58:52</t>
         </is>
       </c>
     </row>
@@ -1805,7 +1805,7 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>2022-08-22 07:03:23</t>
+          <t>2022-08-22 20:58:52</t>
         </is>
       </c>
     </row>
@@ -1856,7 +1856,7 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>2022-08-22 07:03:23</t>
+          <t>2022-08-22 20:58:52</t>
         </is>
       </c>
     </row>
@@ -1909,7 +1909,7 @@
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>2022-08-22 07:03:23</t>
+          <t>2022-08-22 20:58:52</t>
         </is>
       </c>
     </row>
@@ -1960,7 +1960,7 @@
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>2022-08-22 07:03:23</t>
+          <t>2022-08-22 20:58:52</t>
         </is>
       </c>
     </row>
@@ -2011,7 +2011,7 @@
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>2022-08-22 07:03:23</t>
+          <t>2022-08-22 20:58:52</t>
         </is>
       </c>
     </row>
@@ -2062,7 +2062,7 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>2022-08-22 07:03:23</t>
+          <t>2022-08-22 20:58:52</t>
         </is>
       </c>
     </row>
@@ -2113,7 +2113,7 @@
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>2022-08-22 07:03:23</t>
+          <t>2022-08-22 20:58:52</t>
         </is>
       </c>
     </row>
@@ -2164,7 +2164,7 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>2022-08-22 07:03:23</t>
+          <t>2022-08-22 20:58:52</t>
         </is>
       </c>
     </row>
@@ -2215,7 +2215,7 @@
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>2022-08-22 07:03:23</t>
+          <t>2022-08-22 20:58:52</t>
         </is>
       </c>
     </row>
@@ -2268,7 +2268,7 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>2022-08-22 07:03:23</t>
+          <t>2022-08-22 20:58:52</t>
         </is>
       </c>
     </row>
@@ -2319,7 +2319,7 @@
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>2022-08-22 07:03:23</t>
+          <t>2022-08-22 20:58:52</t>
         </is>
       </c>
     </row>
@@ -2370,7 +2370,7 @@
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>2022-08-22 07:03:23</t>
+          <t>2022-08-22 20:58:52</t>
         </is>
       </c>
     </row>
@@ -2421,7 +2421,7 @@
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>2022-08-22 07:03:23</t>
+          <t>2022-08-22 20:58:52</t>
         </is>
       </c>
     </row>
@@ -2472,7 +2472,7 @@
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>2022-08-22 07:03:23</t>
+          <t>2022-08-22 20:58:52</t>
         </is>
       </c>
     </row>
@@ -2523,7 +2523,7 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>2022-08-22 07:03:23</t>
+          <t>2022-08-22 20:58:52</t>
         </is>
       </c>
     </row>
@@ -2574,7 +2574,7 @@
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>2022-08-22 07:03:23</t>
+          <t>2022-08-22 20:58:52</t>
         </is>
       </c>
     </row>
@@ -2625,7 +2625,7 @@
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>2022-08-22 07:03:23</t>
+          <t>2022-08-22 20:58:52</t>
         </is>
       </c>
     </row>
@@ -2676,7 +2676,7 @@
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>2022-08-22 07:03:23</t>
+          <t>2022-08-22 20:58:52</t>
         </is>
       </c>
     </row>
@@ -2727,7 +2727,7 @@
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>2022-08-22 07:03:23</t>
+          <t>2022-08-22 20:58:52</t>
         </is>
       </c>
     </row>
@@ -2780,7 +2780,7 @@
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>2022-08-22 07:03:23</t>
+          <t>2022-08-22 20:58:52</t>
         </is>
       </c>
     </row>
@@ -2833,7 +2833,7 @@
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>2022-08-22 07:03:23</t>
+          <t>2022-08-22 20:58:52</t>
         </is>
       </c>
     </row>
@@ -2884,7 +2884,7 @@
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>2022-08-22 07:03:23</t>
+          <t>2022-08-22 20:58:52</t>
         </is>
       </c>
     </row>
@@ -2935,7 +2935,7 @@
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>2022-08-22 07:03:23</t>
+          <t>2022-08-22 20:58:52</t>
         </is>
       </c>
     </row>
@@ -2988,7 +2988,7 @@
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>2022-08-22 07:03:23</t>
+          <t>2022-08-22 20:58:52</t>
         </is>
       </c>
     </row>
@@ -3041,7 +3041,7 @@
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>2022-08-22 07:03:23</t>
+          <t>2022-08-22 20:58:52</t>
         </is>
       </c>
     </row>
@@ -3094,7 +3094,7 @@
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>2022-08-22 07:03:23</t>
+          <t>2022-08-22 20:58:52</t>
         </is>
       </c>
     </row>
@@ -3145,7 +3145,7 @@
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>2022-08-22 07:03:23</t>
+          <t>2022-08-22 20:58:52</t>
         </is>
       </c>
     </row>
@@ -3196,7 +3196,7 @@
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>2022-08-22 07:03:23</t>
+          <t>2022-08-22 20:58:52</t>
         </is>
       </c>
     </row>
@@ -3249,7 +3249,7 @@
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>2022-08-22 07:03:23</t>
+          <t>2022-08-22 20:58:52</t>
         </is>
       </c>
     </row>
@@ -3300,7 +3300,7 @@
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>2022-08-22 07:03:23</t>
+          <t>2022-08-22 20:58:52</t>
         </is>
       </c>
     </row>
@@ -3351,7 +3351,7 @@
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>2022-08-22 07:03:23</t>
+          <t>2022-08-22 20:58:52</t>
         </is>
       </c>
     </row>
@@ -3402,7 +3402,7 @@
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>2022-08-22 07:03:23</t>
+          <t>2022-08-22 20:58:52</t>
         </is>
       </c>
     </row>
@@ -3453,7 +3453,7 @@
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>2022-08-22 07:03:23</t>
+          <t>2022-08-22 20:58:52</t>
         </is>
       </c>
     </row>
@@ -3504,7 +3504,7 @@
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>2022-08-22 07:03:23</t>
+          <t>2022-08-22 20:58:52</t>
         </is>
       </c>
     </row>
@@ -3555,7 +3555,7 @@
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>2022-08-22 07:03:23</t>
+          <t>2022-08-22 20:58:52</t>
         </is>
       </c>
     </row>
@@ -3608,7 +3608,7 @@
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>2022-08-22 07:03:23</t>
+          <t>2022-08-22 20:58:52</t>
         </is>
       </c>
     </row>
@@ -3659,7 +3659,7 @@
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>2022-08-22 07:03:23</t>
+          <t>2022-08-22 20:58:52</t>
         </is>
       </c>
     </row>
@@ -3710,7 +3710,7 @@
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>2022-08-22 07:03:23</t>
+          <t>2022-08-22 20:58:52</t>
         </is>
       </c>
     </row>
@@ -3761,7 +3761,7 @@
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>2022-08-22 07:03:23</t>
+          <t>2022-08-22 20:58:52</t>
         </is>
       </c>
     </row>
@@ -3812,7 +3812,7 @@
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>2022-08-22 07:03:23</t>
+          <t>2022-08-22 20:58:52</t>
         </is>
       </c>
     </row>
@@ -3865,7 +3865,7 @@
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>2022-08-22 07:03:23</t>
+          <t>2022-08-22 20:58:52</t>
         </is>
       </c>
     </row>
@@ -3916,7 +3916,7 @@
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>2022-08-22 07:03:23</t>
+          <t>2022-08-22 20:58:52</t>
         </is>
       </c>
     </row>
@@ -3967,7 +3967,7 @@
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>2022-08-22 07:03:23</t>
+          <t>2022-08-22 20:58:52</t>
         </is>
       </c>
     </row>
@@ -4018,7 +4018,7 @@
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>2022-08-22 07:03:23</t>
+          <t>2022-08-22 20:58:52</t>
         </is>
       </c>
     </row>
@@ -4089,7 +4089,7 @@
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>2022-08-22 07:03:23</t>
+          <t>2022-08-22 20:58:52</t>
         </is>
       </c>
     </row>
@@ -4140,7 +4140,7 @@
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>2022-08-22 07:03:23</t>
+          <t>2022-08-22 20:58:52</t>
         </is>
       </c>
     </row>
@@ -4191,7 +4191,7 @@
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>2022-08-22 07:03:23</t>
+          <t>2022-08-22 20:58:52</t>
         </is>
       </c>
     </row>
@@ -4244,7 +4244,7 @@
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>2022-08-22 07:03:23</t>
+          <t>2022-08-22 20:58:52</t>
         </is>
       </c>
     </row>
@@ -4315,7 +4315,7 @@
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>2022-08-22 07:03:23</t>
+          <t>2022-08-22 20:58:52</t>
         </is>
       </c>
     </row>
@@ -4386,7 +4386,7 @@
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>2022-08-22 07:03:23</t>
+          <t>2022-08-22 20:58:52</t>
         </is>
       </c>
     </row>
